--- a/data/trans_camb/P18_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,21</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10,72</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,57</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 0,36</t>
+          <t>4,59; 34,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 0,32</t>
+          <t>0,33; 27,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 1,57</t>
+          <t>0,73; 28,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 5,28</t>
+          <t>-14,89; 23,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 0,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 7,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 7,8</t>
+          <t>-8,2; 15,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 5,96</t>
+          <t>-9,03; 12,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -3,76</t>
+          <t>-10,16; 11,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 1,1</t>
+          <t>-6,3; 19,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 3,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 20,53</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 15,96</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 13,77</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 16,57</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,41%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-21,5%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,64%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-8,3%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,25%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>15,24%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 1,19</t>
+          <t>7,86; 85,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 0,49</t>
+          <t>0,61; 70,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 3,58</t>
+          <t>1,71; 78,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 13,32</t>
+          <t>-25,2; 57,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 13,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 13,85</t>
+          <t>-19,49; 51,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 10,58</t>
+          <t>-20,45; 42,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,78; -7,11</t>
+          <t>-22,55; 38,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 2,12</t>
+          <t>-14,53; 63,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 5,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 6,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 55,49</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 44,08</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 36,4</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 44,1</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,72</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,32</t>
+          <t>17,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>13,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-16,01</t>
+          <t>12,28</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>16,27</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>15,44</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,03</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,61</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,57</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,47; -7,9</t>
+          <t>5,48; 21,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 1,66</t>
+          <t>-6,4; 10,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 3,18</t>
+          <t>-4,48; 11,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 6,86</t>
+          <t>-6,79; 10,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,27; -13,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -8,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -6,65</t>
+          <t>9,72; 26,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -0,27</t>
+          <t>7,29; 20,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -11,54</t>
+          <t>5,47; 18,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; -4,84</t>
+          <t>8,38; 24,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-11,51; -3,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 1,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 20,76</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 13,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 13,44</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 15,89</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-35,38%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,45%</t>
+          <t>47,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,45%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-32,89%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-15,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30,93%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -22,99</t>
+          <t>8,15; 37,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 5,54</t>
+          <t>-9,5; 18,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 9,31</t>
+          <t>-6,62; 19,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 21,48</t>
+          <t>-10,33; 18,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,77; -23,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,61; -13,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,98; -11,23</t>
+          <t>22,34; 79,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,79; -0,47</t>
+          <t>17,91; 62,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,33; -25,0</t>
+          <t>13,19; 57,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-25,2; -10,26</t>
+          <t>20,3; 75,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-23,04; -6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 2,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>17,87; 44,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 28,84</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 29,17</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 35,05</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-25,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-21,63</t>
+          <t>26,15</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-16,02</t>
+          <t>22,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-18,32</t>
+          <t>23,47</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-13,77</t>
+          <t>28,68</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-14,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19,75</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12,96</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>17,29</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -3,32</t>
+          <t>2,66; 19,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -0,78</t>
+          <t>-7,56; 10,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -1,31</t>
+          <t>-5,91; 11,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 12,42</t>
+          <t>-4,34; 12,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,95; -18,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,46; -15,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,06; -15,61</t>
+          <t>17,73; 34,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -8,41</t>
+          <t>14,95; 29,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,57; -13,54</t>
+          <t>15,3; 30,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -8,92</t>
+          <t>21,22; 36,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-19,56; -9,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 0,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,32; 26,64</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 19,31</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 19,83</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 23,9</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,68%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,49%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-21,83%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-40,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-32,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-33,51%</t>
+          <t>78,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,81%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-36,46%</t>
+          <t>70,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-27,41%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-28,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-12,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>39,75%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>26,09%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>34,81%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,15; -9,47</t>
+          <t>4,2; 31,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,53; -2,44</t>
+          <t>-10,15; 15,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,76; -3,53</t>
+          <t>-7,9; 17,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 36,75</t>
+          <t>-5,81; 20,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,89; -30,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,5; -24,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,8; -25,95</t>
+          <t>47,36; 125,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,26; -13,36</t>
+          <t>38,84; 104,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,95; -28,18</t>
+          <t>40,24; 104,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-35,83; -18,72</t>
+          <t>55,98; 133,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-36,9; -20,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 0,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 57,82</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 42,42</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>14,51; 43,37</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>20,2; 52,62</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,31</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,57</t>
+          <t>20,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>11,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-15,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-8,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>15,15</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>11,13</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9,0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -7,79</t>
+          <t>2,72; 15,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -1,87</t>
+          <t>2,02; 15,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -1,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,14</t>
+          <t>-1,33; 12,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,12; -14,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -8,12</t>
+          <t>15,23; 26,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -2,98</t>
+          <t>5,0; 17,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -12,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -6,37</t>
+          <t>5,36; 18,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 19,13</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 15,86</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 13,67</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,59%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-30,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,65%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-30,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-18,05%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>29,76%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -20,97</t>
+          <t>4,29; 26,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,01; -5,09</t>
+          <t>3,15; 26,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,8; -3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 14,63</t>
+          <t>-2,04; 20,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,39; -24,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -14,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,15; -13,31</t>
+          <t>35,68; 69,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -4,97</t>
+          <t>11,77; 45,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,91; -25,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -13,02</t>
+          <t>13,29; 48,28</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -11,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-12,84; -0,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>20,53; 38,86</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>11,27; 32,19</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 27,55</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12,17</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18,21</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11,99</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10,57</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15,2</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>15,26</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>8,85</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>8,03</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>9,93</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 16,09</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 9,63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 9,62</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 9,4</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 22,07</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 15,18</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 14,08</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 19,26</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>12,6; 18,05</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 11,61</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 10,75</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 13,05</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>47,62%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31,35%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>27,64%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>39,74%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>30,51%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 27,09</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 16,19</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 16,0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 15,41</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>36,72; 61,06</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 41,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 38,94</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>27,07; 51,99</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 37,06</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>12,27; 23,78</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>10,26; 22,24</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 27,07</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
